--- a/Architecture.xlsx
+++ b/Architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyijin/Documents/Personal Website/holly6116.github.com/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86DE819-3CEE-5F44-8385-2918EFAEB1B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ABAA04-E059-BA4D-B859-2E34B9DE046F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="20660" windowHeight="16100" activeTab="1" xr2:uid="{CB4644E5-B191-A948-A501-83F574B4F679}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>ART</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>New Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregation | </t>
+  </si>
+  <si>
+    <t>Paris, France</t>
+  </si>
+  <si>
+    <t>Office, cultural</t>
   </si>
 </sst>
 </file>
@@ -523,7 +532,7 @@
   <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,16 +715,27 @@
         <v>11</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">

--- a/Architecture.xlsx
+++ b/Architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyijin/Documents/Personal Website/holly6116.github.com/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ABAA04-E059-BA4D-B859-2E34B9DE046F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D612EA-47CD-C549-B785-053B52C9297E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="20660" windowHeight="16100" activeTab="1" xr2:uid="{CB4644E5-B191-A948-A501-83F574B4F679}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>ART</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>Office, cultural</t>
+  </si>
+  <si>
+    <t>Aggregated City | Social Housing in Hong Kong</t>
+  </si>
+  <si>
+    <t>masterplan, architecture, academic</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The evolution of the social housing in HK brings the collectivity to the individuality, eliminating the collective life in the public space in the social housing typology. From the the slab typology to the contemporary tower typology, the reduction in the collec- tive life should be addressed and rethought about. </t>
+  </si>
+  <si>
+    <t>research, academic</t>
+  </si>
+  <si>
+    <t>Organization/Form</t>
+  </si>
+  <si>
+    <t>precedent</t>
   </si>
 </sst>
 </file>
@@ -531,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9000BD00-F51E-174C-ADC4-1613289384E6}">
   <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,21 +759,46 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="95" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="G13" s="2"/>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2011</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
